--- a/FakeProject/design/excel/egg_config.xlsx
+++ b/FakeProject/design/excel/egg_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24465" windowHeight="12855"/>
+    <workbookView windowWidth="20820" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,56 +43,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-密语</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1代表生效</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>序号</t>
   </si>
@@ -100,18 +56,21 @@
     <t>名称</t>
   </si>
   <si>
-    <t>锁定时图标路径</t>
-  </si>
-  <si>
-    <t>完成状态图标路径</t>
+    <t>展示图标路径</t>
+  </si>
+  <si>
+    <t>黑色图标路径</t>
+  </si>
+  <si>
+    <t>彩色图标路径</t>
+  </si>
+  <si>
+    <t>关联兑换码id</t>
   </si>
   <si>
     <t>密语</t>
   </si>
   <si>
-    <t>暗号</t>
-  </si>
-  <si>
     <t>是否可用</t>
   </si>
   <si>
@@ -121,52 +80,58 @@
     <t>string</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>lockIcon</t>
-  </si>
-  <si>
-    <t>icon</t>
+    <t>display_path</t>
+  </si>
+  <si>
+    <t>lockicon_path</t>
+  </si>
+  <si>
+    <t>icon_path</t>
+  </si>
+  <si>
+    <t>reward_code</t>
   </si>
   <si>
     <t>secret</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>enable</t>
-  </si>
-  <si>
-    <t>彩蛋1</t>
-  </si>
-  <si>
-    <t>res/url/image/105.png</t>
-  </si>
-  <si>
-    <t>第一关</t>
-  </si>
-  <si>
-    <t>你懂的</t>
-  </si>
-  <si>
-    <t>彩蛋2</t>
-  </si>
-  <si>
-    <t>res/url/image/23.png</t>
-  </si>
-  <si>
-    <t>彩蛋3</t>
-  </si>
-  <si>
-    <t>res/url/image/diam_3.png</t>
-  </si>
-  <si>
-    <t>神秘彩蛋</t>
+    <t>avliable</t>
+  </si>
+  <si>
+    <t>发型总监</t>
+  </si>
+  <si>
+    <t>ui://9pt95ndunq3g1j</t>
+  </si>
+  <si>
+    <t>兑换码:5678</t>
+  </si>
+  <si>
+    <t>齐天大圣</t>
+  </si>
+  <si>
+    <t>ui://9pt95ndunq3g1i</t>
+  </si>
+  <si>
+    <t>兑换码:7778</t>
+  </si>
+  <si>
+    <t>嫦娥妹妹</t>
+  </si>
+  <si>
+    <t>ui://9pt95ndunq3g1e</t>
+  </si>
+  <si>
+    <t>兑换码:2222</t>
   </si>
 </sst>
 </file>
@@ -174,9 +139,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -189,10 +154,63 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,59 +223,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +246,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,7 +268,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,32 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,11 +511,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,23 +588,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,30 +608,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -651,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,133 +628,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,21 +1113,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="27.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="27.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,205 +1150,164 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7"/>
+    <row r="7" spans="5:7">
       <c r="E7"/>
       <c r="F7"/>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
+      <c r="G7"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8"/>
+    <row r="8" spans="5:7">
       <c r="E8"/>
       <c r="F8"/>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
+      <c r="G8"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9"/>
+    <row r="9" spans="5:7">
       <c r="E9"/>
       <c r="F9"/>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
+      <c r="G9"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10"/>
+    <row r="10" spans="5:7">
       <c r="E10"/>
       <c r="F10"/>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
+      <c r="G10"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11"/>
+    <row r="11" spans="5:7">
       <c r="E11"/>
       <c r="F11"/>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
+      <c r="G11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FakeProject/design/excel/egg_config.xlsx
+++ b/FakeProject/design/excel/egg_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20820" windowHeight="7155"/>
+    <workbookView windowWidth="24210" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Admin</author>
+    <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -30,7 +30,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Admin:</t>
+          <t>admin:</t>
         </r>
         <r>
           <rPr>
@@ -39,7 +39,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-密语</t>
+admin:
+1默认解锁
+2弹窗彩蛋/兑换码
+3视频直接解锁
+4分享解锁</t>
         </r>
       </text>
     </comment>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>序号</t>
   </si>
@@ -56,82 +60,154 @@
     <t>名称</t>
   </si>
   <si>
-    <t>展示图标路径</t>
-  </si>
-  <si>
-    <t>黑色图标路径</t>
+    <t>展示用模型</t>
   </si>
   <si>
     <t>彩色图标路径</t>
   </si>
   <si>
-    <t>关联兑换码id</t>
-  </si>
-  <si>
-    <t>密语</t>
+    <t>奖励类型</t>
+  </si>
+  <si>
+    <t>奖励内容</t>
+  </si>
+  <si>
+    <t>进度奖励金币数量</t>
+  </si>
+  <si>
+    <t>金币图标</t>
+  </si>
+  <si>
+    <t>解锁类型</t>
+  </si>
+  <si>
+    <t>解锁价格</t>
+  </si>
+  <si>
+    <t>兑换码</t>
   </si>
   <si>
     <t>是否可用</t>
   </si>
   <si>
+    <t>偏移值</t>
+  </si>
+  <si>
+    <t>旋转</t>
+  </si>
+  <si>
+    <t>缩放</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>boolean</t>
   </si>
   <si>
+    <t>float[]</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>display_path</t>
-  </si>
-  <si>
-    <t>lockicon_path</t>
+    <t>model_path</t>
   </si>
   <si>
     <t>icon_path</t>
   </si>
   <si>
-    <t>reward_code</t>
-  </si>
-  <si>
-    <t>secret</t>
+    <t>reward_type</t>
+  </si>
+  <si>
+    <t>reward_value</t>
+  </si>
+  <si>
+    <t>reward_coin_value</t>
+  </si>
+  <si>
+    <t>coin_icon</t>
+  </si>
+  <si>
+    <t>unlock_type</t>
+  </si>
+  <si>
+    <t>unlock_value</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t>avliable</t>
   </si>
   <si>
-    <t>发型总监</t>
-  </si>
-  <si>
-    <t>ui://9pt95ndunq3g1j</t>
-  </si>
-  <si>
-    <t>兑换码:5678</t>
-  </si>
-  <si>
-    <t>齐天大圣</t>
-  </si>
-  <si>
-    <t>ui://9pt95ndunq3g1i</t>
-  </si>
-  <si>
-    <t>兑换码:7778</t>
-  </si>
-  <si>
-    <t>嫦娥妹妹</t>
-  </si>
-  <si>
-    <t>ui://9pt95ndunq3g1e</t>
-  </si>
-  <si>
-    <t>兑换码:2222</t>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>椿利小姐</t>
+  </si>
+  <si>
+    <t>chunli</t>
+  </si>
+  <si>
+    <t>ui://eyd6k7hgg2frm</t>
+  </si>
+  <si>
+    <t>[100,200]</t>
+  </si>
+  <si>
+    <t>ui://eyd6k7hgo9oq1e</t>
+  </si>
+  <si>
+    <t>[0,0,-3]</t>
+  </si>
+  <si>
+    <t>[0,180,0]</t>
+  </si>
+  <si>
+    <t>[4,4,4]</t>
+  </si>
+  <si>
+    <t>美丽少女</t>
+  </si>
+  <si>
+    <t>meishaonv</t>
+  </si>
+  <si>
+    <t>ui://eyd6k7hgg2frq</t>
+  </si>
+  <si>
+    <t>佬啦丽影</t>
+  </si>
+  <si>
+    <t>laola</t>
+  </si>
+  <si>
+    <t>ui://eyd6k7hgg2frp</t>
+  </si>
+  <si>
+    <t>小丑女士</t>
+  </si>
+  <si>
+    <t>xiaochou</t>
+  </si>
+  <si>
+    <t>ui://eyd6k7hgg2fro</t>
   </si>
 </sst>
 </file>
@@ -140,14 +216,126 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -161,51 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -215,66 +358,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -282,9 +365,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,16 +379,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,43 +399,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,139 +543,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,39 +590,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,7 +638,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +681,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,10 +698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,141 +710,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,201 +1210,505 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="27.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="12.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="2" customWidth="1"/>
+    <col min="6" max="8" width="13.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>110</v>
+      </c>
+      <c r="L4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>678</v>
+      </c>
+      <c r="L6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:15">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7">
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="5:7">
+      <c r="M7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" s="4"/>
       <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="5:7">
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="D9" s="4"/>
       <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="5:7">
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="D10" s="4"/>
       <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="5:7">
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="D11" s="4"/>
       <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="D12" s="4"/>
+      <c r="E12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="D13" s="4"/>
+      <c r="E13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="D14" s="4"/>
+      <c r="E14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="D15" s="4"/>
+      <c r="E15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="D16" s="4"/>
+      <c r="E16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17" s="4"/>
+      <c r="E17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="D18" s="4"/>
+      <c r="E18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="4:8">
+      <c r="D19" s="4"/>
+      <c r="E19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="D20" s="4"/>
+      <c r="E20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="D21" s="4"/>
+      <c r="E21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="4:8">
+      <c r="D22" s="4"/>
+      <c r="E22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="4:8">
+      <c r="D27"/>
+      <c r="E27" s="5"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="4:8">
+      <c r="D28"/>
+      <c r="E28" s="5"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" s="5"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" s="5"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" s="5"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="4:8">
+      <c r="D33"/>
+      <c r="E33" s="5"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="E37" s="5"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="E38" s="5"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="E39" s="5"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="5:8">
+      <c r="E40" s="5"/>
+      <c r="H40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FakeProject/design/excel/egg_config.xlsx
+++ b/FakeProject/design/excel/egg_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24210" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>序号</t>
   </si>
@@ -162,7 +162,7 @@
     <t>椿利小姐</t>
   </si>
   <si>
-    <t>chunli</t>
+    <t>player_01</t>
   </si>
   <si>
     <t>ui://eyd6k7hgg2frm</t>
@@ -186,25 +186,19 @@
     <t>美丽少女</t>
   </si>
   <si>
-    <t>meishaonv</t>
-  </si>
-  <si>
     <t>ui://eyd6k7hgg2frq</t>
   </si>
   <si>
     <t>佬啦丽影</t>
   </si>
   <si>
-    <t>laola</t>
-  </si>
-  <si>
     <t>ui://eyd6k7hgg2frp</t>
   </si>
   <si>
     <t>小丑女士</t>
   </si>
   <si>
-    <t>xiaochou</t>
+    <t>ragdoll_01</t>
   </si>
   <si>
     <t>ui://eyd6k7hgg2fro</t>
@@ -215,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -235,6 +229,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -242,29 +251,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,9 +328,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,45 +352,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -341,37 +359,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -379,6 +366,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -399,49 +393,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,133 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,6 +584,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -608,21 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -637,8 +631,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +642,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,15 +684,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -698,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,133 +704,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,7 +1207,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1221,7 +1215,8 @@
     <col min="1" max="3" width="12.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.375" style="2" customWidth="1"/>
-    <col min="6" max="8" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
     <col min="11" max="11" width="7.375" style="2" customWidth="1"/>
@@ -1425,10 +1420,10 @@
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -1469,13 +1464,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1516,13 +1511,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -1537,10 +1532,10 @@
         <v>39</v>
       </c>
       <c r="I7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>

--- a/FakeProject/design/excel/egg_config.xlsx
+++ b/FakeProject/design/excel/egg_config.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>序号</t>
   </si>
@@ -99,6 +99,9 @@
     <t>缩放</t>
   </si>
   <si>
+    <t>默认动画</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
     <t>scale</t>
   </si>
   <si>
+    <t>default_anim</t>
+  </si>
+  <si>
     <t>椿利小姐</t>
   </si>
   <si>
@@ -174,13 +180,16 @@
     <t>ui://eyd6k7hgo9oq1e</t>
   </si>
   <si>
-    <t>[0,0,-3]</t>
+    <t>[0,-3,-3]</t>
   </si>
   <si>
     <t>[0,180,0]</t>
   </si>
   <si>
-    <t>[4,4,4]</t>
+    <t>[2,2,2]</t>
+  </si>
+  <si>
+    <t>wudao01</t>
   </si>
   <si>
     <t>美丽少女</t>
@@ -189,10 +198,16 @@
     <t>ui://eyd6k7hgg2frq</t>
   </si>
   <si>
+    <t>wudao02</t>
+  </si>
+  <si>
     <t>佬啦丽影</t>
   </si>
   <si>
     <t>ui://eyd6k7hgg2frp</t>
+  </si>
+  <si>
+    <t>wudao03</t>
   </si>
   <si>
     <t>小丑女士</t>
@@ -229,6 +244,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -244,8 +288,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,15 +327,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,60 +367,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -360,7 +375,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,13 +408,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,13 +540,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,151 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,17 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +632,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -628,11 +658,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,32 +691,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,10 +707,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +719,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,27 +1219,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="12.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
     <col min="6" max="7" width="13.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
     <col min="11" max="11" width="7.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="9.375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="13" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="13.75" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1270,113 +1287,122 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1385,10 +1411,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -1403,27 +1429,30 @@
         <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+        <v>44</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -1432,10 +1461,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -1450,27 +1479,30 @@
         <v>1</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:15">
+        <v>44</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:16">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1479,10 +1511,10 @@
         <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I6" s="3">
         <v>2</v>
@@ -1497,13 +1529,16 @@
         <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
@@ -1511,13 +1546,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -1526,10 +1561,10 @@
         <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I7" s="3">
         <v>4</v>
@@ -1544,13 +1579,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="4:8">
